--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0249A50-24F5-E649-B463-160326ACD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFB96E-C3AB-0444-AB2E-CB62529A8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="2000" windowWidth="17220" windowHeight="16940" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
+    <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREC_MERCADO_CWS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Precio normal</t>
   </si>
@@ -51,6 +51,75 @@
   </si>
   <si>
     <t>Desc. Real</t>
+  </si>
+  <si>
+    <t>PRECIOS PRODUCTOS</t>
+  </si>
+  <si>
+    <t>Producto 1</t>
+  </si>
+  <si>
+    <t>Producto 2</t>
+  </si>
+  <si>
+    <t>TAMAÑO MERCADO</t>
+  </si>
+  <si>
+    <t>Porc. Potencial clientes</t>
+  </si>
+  <si>
+    <t>Clientes estimados / minuto</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%  Housing Starts</t>
+  </si>
+  <si>
+    <t>Cumulative % of Starts</t>
+  </si>
+  <si>
+    <t>Clientes estimados / hr</t>
+  </si>
+  <si>
+    <t>Personas por minuto (prom.)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +146,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -102,11 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -422,104 +508,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>18000</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.09</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
-        <f>B2*(1-B3)</f>
-        <v>16380</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>16300</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <f>1-B5/B2</f>
-        <v>9.4444444444444442E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B4*(1-B5)</f>
+        <v>16380</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16300</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>24000</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f>1-B7/B4</f>
+        <v>9.4444444444444442E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.09</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <f>B8*(1-B9)</f>
-        <v>21840</v>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B11*(1-B12)</f>
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
-        <f>1-B11/B8</f>
+      <c r="B15" s="2">
+        <f>1-B14/B11</f>
         <v>9.5833333333333326E-2</v>
       </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>B19*B20</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <f>B21*60</f>
+        <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFB96E-C3AB-0444-AB2E-CB62529A8878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1400F21-ACC9-634A-B95B-1508D8E34CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREC_MERCADO_CWS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="ClientesEstimadosHr">PREC_MERCADO_CWS!$B$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Precio normal</t>
   </si>
@@ -71,65 +74,81 @@
     <t>Clientes estimados / minuto</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>%  Housing Starts</t>
-  </si>
-  <si>
-    <t>Cumulative % of Starts</t>
-  </si>
-  <si>
     <t>Clientes estimados / hr</t>
   </si>
   <si>
     <t>Personas por minuto (prom.)</t>
+  </si>
+  <si>
+    <t>7am</t>
+  </si>
+  <si>
+    <t>8am</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>12am</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>9pm</t>
+  </si>
+  <si>
+    <t>10pm</t>
+  </si>
+  <si>
+    <t>11pm</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>Clientes unidad</t>
+  </si>
+  <si>
+    <t>Probabilidad venta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +178,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF06880C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -181,20 +206,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -508,16 +537,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:N27"/>
+  <dimension ref="A2:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,20 +653,20 @@
         <v>9.5833333333333326E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,7 +674,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -653,60 +683,74 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <f>B21*60</f>
         <v>18.000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -719,92 +763,143 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0.86999999999999988</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0.94999999999999984</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N27" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*D26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*E26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*F26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*G26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*H26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*I26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*J26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*K26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*L26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*M26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*N26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*O26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*P26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*Q26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*R26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*S26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*T26,0)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1400F21-ACC9-634A-B95B-1508D8E34CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB7C1F-2115-7141-8077-BB09EA54269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREC_MERCADO_CWS" sheetId="1" r:id="rId1"/>
+    <sheet name="PREC_MERCADO_CWS (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="ClientesEstimadosHr" localSheetId="1">'PREC_MERCADO_CWS (2)'!$B$22</definedName>
     <definedName name="ClientesEstimadosHr">PREC_MERCADO_CWS!$B$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Precio normal</t>
   </si>
@@ -138,6 +140,9 @@
   </si>
   <si>
     <t>Probabilidad venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
   </si>
 </sst>
 </file>
@@ -148,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +193,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +229,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,6 +239,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -537,17 +558,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:T27"/>
+  <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -653,12 +676,12 @@
         <v>9.5833333333333326E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,7 +697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,7 +706,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,7 +715,7 @@
         <v>18.000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="C24" s="6" t="s">
         <v>13</v>
@@ -748,8 +771,11 @@
       <c r="T24" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -764,16 +790,17 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="8">
         <v>0.5</v>
@@ -809,32 +836,33 @@
         <v>0.25</v>
       </c>
       <c r="P26" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*D26,0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*E26,0)</f>
@@ -882,23 +910,410 @@
       </c>
       <c r="P27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*P26,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*Q26,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*R26,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*S26,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T27" s="7">
         <f>ROUNDDOWN(ClientesEstimadosHr*T26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <f>SUM(C27:S27)</f>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC8285-D808-C84C-B5DE-12E2627C8760}">
+  <dimension ref="A2:U27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B4*(1-B5)</f>
+        <v>16380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f>1-B7/B4</f>
+        <v>9.4444444444444442E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B11*(1-B12)</f>
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <f>1-B14/B11</f>
+        <v>9.5833333333333326E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>B19*B20</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f>B21*60</f>
+        <v>36.000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*D26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*E26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*F26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*G26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*H26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*I26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*J26,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*K26,0)</f>
+        <v>3</v>
+      </c>
+      <c r="L27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*L26,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*M26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*N26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*O26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*P26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*Q26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*R26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*S26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*T26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <f>SUM(C27:S27)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DB7C1F-2115-7141-8077-BB09EA54269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF5C54-C85F-D84F-8D6F-E25A4C63B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Precio normal</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Total</t>
+  </si>
+  <si>
+    <t>Ventana de trabajo</t>
+  </si>
+  <si>
+    <t>Total clientes estimados / año</t>
+  </si>
+  <si>
+    <t>Total clientes estimados / mes</t>
+  </si>
+  <si>
+    <t>Total clientes estimados / día</t>
   </si>
 </sst>
 </file>
@@ -558,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:U27"/>
+  <dimension ref="A2:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" customWidth="1"/>
@@ -713,6 +725,428 @@
       <c r="B22">
         <f>B21*60</f>
         <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(C30:T30,"&gt;0")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <f>ClientesEstimadosHr*B23</f>
+        <v>198.00000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <f>B24*30</f>
+        <v>5940.0000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <f>B25*12</f>
+        <v>71280.000000000015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*C30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*D30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*E30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*F30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*G30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*H30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*I30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*J30,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*K30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*L30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*M30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*N30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*O30,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*P30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*Q30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*R30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*S30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*T30,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
+        <f>SUM(C31:S31)</f>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC8285-D808-C84C-B5DE-12E2627C8760}">
+  <dimension ref="A2:U27"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B4*(1-B5)</f>
+        <v>16380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <f>1-B7/B4</f>
+        <v>9.4444444444444442E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B11*(1-B12)</f>
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <f>1-B14/B11</f>
+        <v>9.5833333333333326E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>B19*B20</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <f>B21*60</f>
+        <v>36.000000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -803,389 +1237,6 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
-        <v>0</v>
-      </c>
-      <c r="U26" s="10"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*D26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*E26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*F26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="G27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*G26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="H27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*H26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*I26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="J27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*J26,0)</f>
-        <v>9</v>
-      </c>
-      <c r="K27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*K26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*L26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="M27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*M26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="N27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*N26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="O27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*O26,0)</f>
-        <v>4</v>
-      </c>
-      <c r="P27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*P26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*Q26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*R26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*S26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*T26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="10">
-        <f>SUM(C27:S27)</f>
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC8285-D808-C84C-B5DE-12E2627C8760}">
-  <dimension ref="A2:U27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="5.6640625" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <f>B4*(1-B5)</f>
-        <v>16380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <f>1-B7/B4</f>
-        <v>9.4444444444444442E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
-        <f>B11*(1-B12)</f>
-        <v>21840</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3">
-        <v>21700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <f>1-B14/B11</f>
-        <v>9.5833333333333326E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <f>B19*B20</f>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <f>B21*60</f>
-        <v>36.000000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
         <v>0.3</v>
       </c>
       <c r="F26" s="8">

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF5C54-C85F-D84F-8D6F-E25A4C63B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF65935-3DCB-CA48-9FF6-07305DE08448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Precio normal</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>Total clientes estimados / día</t>
+  </si>
+  <si>
+    <t>Porc. potencial clientes</t>
+  </si>
+  <si>
+    <t>SUPUESTOS VENTA</t>
+  </si>
+  <si>
+    <t>Total clientes supuestos / día</t>
+  </si>
+  <si>
+    <t>Total clientes supuestos / mes</t>
+  </si>
+  <si>
+    <t>Total clientes supuestos / año</t>
   </si>
 </sst>
 </file>
@@ -241,7 +256,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,6 +269,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -570,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:U31"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,13 +714,13 @@
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -722,7 +739,7 @@
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="13">
         <f>B21*60</f>
         <v>18.000000000000004</v>
       </c>
@@ -731,8 +748,8 @@
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <f>COUNTIF(C30:T30,"&gt;0")</f>
+      <c r="B23" s="13">
+        <f>COUNTIF(C32:T32,"&gt;0")</f>
         <v>11</v>
       </c>
     </row>
@@ -740,7 +757,7 @@
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="13">
         <f>ClientesEstimadosHr*B23</f>
         <v>198.00000000000003</v>
       </c>
@@ -749,7 +766,7 @@
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="13">
         <f>B24*30</f>
         <v>5940.0000000000009</v>
       </c>
@@ -758,7 +775,7 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <f>B25*12</f>
         <v>71280.000000000015</v>
       </c>
@@ -767,221 +784,256 @@
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="6" t="s">
+      <c r="Q30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U30" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
         <v>0.5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F32" s="8">
         <v>0.5</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G32" s="8">
         <v>0.5</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H32" s="8">
         <v>0.5</v>
       </c>
-      <c r="I30" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="I32" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="8">
         <v>0.25</v>
       </c>
-      <c r="L30" s="8">
+      <c r="M32" s="8">
         <v>0.25</v>
       </c>
-      <c r="M30" s="8">
+      <c r="N32" s="8">
         <v>0.25</v>
       </c>
-      <c r="N30" s="8">
+      <c r="O32" s="8">
         <v>0.25</v>
       </c>
-      <c r="O30" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>0</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="10"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*C30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*D30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*E30,0)</f>
+      <c r="C33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*C32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*D32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*E32,0)</f>
         <v>9</v>
       </c>
-      <c r="F31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*F30,0)</f>
+      <c r="F33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*F32,0)</f>
         <v>9</v>
       </c>
-      <c r="G31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*G30,0)</f>
+      <c r="G33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*G32,0)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*H30,0)</f>
+      <c r="H33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*H32,0)</f>
         <v>9</v>
       </c>
-      <c r="I31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*I30,0)</f>
-        <v>9</v>
-      </c>
-      <c r="J31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*J30,0)</f>
-        <v>9</v>
-      </c>
-      <c r="K31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*K30,0)</f>
+      <c r="I33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*I32,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*J32,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*K32,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*L32,0)</f>
         <v>4</v>
       </c>
-      <c r="L31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*L30,0)</f>
+      <c r="M33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*M32,0)</f>
         <v>4</v>
       </c>
-      <c r="M31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*M30,0)</f>
+      <c r="N33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*N32,0)</f>
         <v>4</v>
       </c>
-      <c r="N31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*N30,0)</f>
+      <c r="O33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*O32,0)</f>
         <v>4</v>
       </c>
-      <c r="O31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*O30,0)</f>
-        <v>4</v>
-      </c>
-      <c r="P31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*P30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*Q30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*R30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*S30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*T30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="10">
-        <f>SUM(C31:S31)</f>
-        <v>74</v>
+      <c r="P33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*P32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*Q32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*R32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*S32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <f>ROUNDDOWN(ClientesEstimadosHr*T32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
+        <f>SUM(C33:S33)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="12">
+        <f>U33</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="12">
+        <f>B34*6*4</f>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="12">
+        <f>B35*12</f>
+        <v>19296</v>
       </c>
     </row>
   </sheetData>

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF65935-3DCB-CA48-9FF6-07305DE08448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA791FAB-C3B6-BF45-83DF-0C13623B06E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="3860" windowWidth="15480" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
+    <workbookView xWindow="10040" yWindow="3860" windowWidth="20780" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREC_MERCADO_CWS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
   </sheets>
   <definedNames>
     <definedName name="ClientesEstimadosHr" localSheetId="1">'PREC_MERCADO_CWS (2)'!$B$22</definedName>
-    <definedName name="ClientesEstimadosHr">PREC_MERCADO_CWS!$B$22</definedName>
+    <definedName name="ClientesEstimadosHr">PREC_MERCADO_CWS!$B$29</definedName>
+    <definedName name="PersonasPromMinuto">PREC_MERCADO_CWS!$B$19</definedName>
+    <definedName name="VentasDiariasEsperadas">PREC_MERCADO_CWS!$U$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Precio normal</t>
   </si>
@@ -145,9 +147,6 @@
     <t xml:space="preserve"> Total</t>
   </si>
   <si>
-    <t>Ventana de trabajo</t>
-  </si>
-  <si>
     <t>Total clientes estimados / año</t>
   </si>
   <si>
@@ -157,9 +156,6 @@
     <t>Total clientes estimados / día</t>
   </si>
   <si>
-    <t>Porc. potencial clientes</t>
-  </si>
-  <si>
     <t>SUPUESTOS VENTA</t>
   </si>
   <si>
@@ -170,6 +166,45 @@
   </si>
   <si>
     <t>Total clientes supuestos / año</t>
+  </si>
+  <si>
+    <t>Personas por hora</t>
+  </si>
+  <si>
+    <t>Ventana de trabajo al día</t>
+  </si>
+  <si>
+    <t>Total mercado al día</t>
+  </si>
+  <si>
+    <t>Total mercado al mes</t>
+  </si>
+  <si>
+    <t>Total mercado al año laboral</t>
+  </si>
+  <si>
+    <t>% Potencial clientes</t>
+  </si>
+  <si>
+    <t>% Venta esperado</t>
+  </si>
+  <si>
+    <t>TAMAÑ MERCADO</t>
+  </si>
+  <si>
+    <t>TAMAÑ MERCADO OBJETIVO #2</t>
+  </si>
+  <si>
+    <t>TAMAÑ MERCADO OBJETIVO #1</t>
+  </si>
+  <si>
+    <t>Total mercado objetivo al día</t>
+  </si>
+  <si>
+    <t>Total mercado objetivo al mes</t>
+  </si>
+  <si>
+    <t>Total mercado objetivo año laboral</t>
   </si>
 </sst>
 </file>
@@ -587,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
-  <dimension ref="A2:U36"/>
+  <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,12 +740,12 @@
         <v>9.5833333333333326E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -718,322 +753,409 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13">
+        <f>B19*60</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13">
+        <f>COUNTIF(C44:T44,"&gt;0")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13">
+        <f>B20*B21</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="13">
+        <f>B22*30</f>
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="13">
+        <f>B23*12*0.8</f>
+        <v>570240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
-        <f>B19*B20</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B28">
+        <f>PersonasPromMinuto*B27</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="13">
-        <f>B21*60</f>
-        <v>18.000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="13">
-        <f>COUNTIF(C32:T32,"&gt;0")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="13">
-        <f>ClientesEstimadosHr*B23</f>
-        <v>198.00000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="13">
-        <f>B24*30</f>
-        <v>5940.0000000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="13">
-        <f>B25*12</f>
-        <v>71280.000000000015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30" s="6" t="s">
+      <c r="B29" s="13">
+        <f>B28*60</f>
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="13">
+        <f>VentasDiariasEsperadas</f>
         <v>30</v>
       </c>
-      <c r="U30" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="13">
+        <f>B30*25</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="13">
+        <f>B31*12*0.8</f>
+        <v>7200</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*C32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*D32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*E32,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*F32,0)</f>
-        <v>9</v>
-      </c>
-      <c r="G33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*G32,0)</f>
-        <v>9</v>
-      </c>
-      <c r="H33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*H32,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*I32,0)</f>
-        <v>5</v>
-      </c>
-      <c r="J33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*J32,0)</f>
-        <v>5</v>
-      </c>
-      <c r="K33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*K32,0)</f>
-        <v>5</v>
-      </c>
-      <c r="L33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*L32,0)</f>
-        <v>4</v>
-      </c>
-      <c r="M33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*M32,0)</f>
-        <v>4</v>
-      </c>
-      <c r="N33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*N32,0)</f>
-        <v>4</v>
-      </c>
-      <c r="O33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*O32,0)</f>
-        <v>4</v>
-      </c>
-      <c r="P33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*P32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*Q32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*R32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*S32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*T32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="10">
-        <f>SUM(C33:S33)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="12">
-        <f>U33</f>
-        <v>67</v>
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5">
+        <f>B32/B24</f>
+        <v>1.2626262626262626E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="12">
-        <f>B34*6*4</f>
-        <v>1608</v>
+      <c r="A35" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="12">
-        <f>B35*12</f>
-        <v>19296</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="13">
+        <f>ClientesEstimadosHr*B21</f>
+        <v>99.000000000000014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="13">
+        <f>B36*30</f>
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13">
+        <f>B37*12</f>
+        <v>35640.000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" ref="C45:T45" si="0">ROUNDDOWN(ClientesEstimadosHr*C44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <f>SUM(C45:S45)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="12">
+        <f>U45</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="12">
+        <f>B46*6*4</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="12">
+        <f>B47*12</f>
+        <v>8640</v>
       </c>
     </row>
   </sheetData>
@@ -1343,75 +1465,75 @@
         <v>31</v>
       </c>
       <c r="C27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
+        <f t="shared" ref="C27:T27" si="0">ROUNDDOWN(ClientesEstimadosHr*C26,0)</f>
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*D26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*E26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*F26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*G26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*H26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*I26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*J26,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*K26,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="L27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*L26,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*M26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*N26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*O26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*P26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*Q26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*R26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*S26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T27" s="7">
-        <f>ROUNDDOWN(ClientesEstimadosHr*T26,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U27" s="10">

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA791FAB-C3B6-BF45-83DF-0C13623B06E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F5D16-67C9-294A-A4BA-EBF009F5CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10040" yWindow="3860" windowWidth="20780" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Precio normal</t>
   </si>
@@ -157,15 +157,6 @@
   </si>
   <si>
     <t>SUPUESTOS VENTA</t>
-  </si>
-  <si>
-    <t>Total clientes supuestos / día</t>
-  </si>
-  <si>
-    <t>Total clientes supuestos / mes</t>
-  </si>
-  <si>
-    <t>Total clientes supuestos / año</t>
   </si>
   <si>
     <t>Personas por hora</t>
@@ -624,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
   <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +733,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +746,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="13">
         <f>B19*60</f>
@@ -764,7 +755,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" s="13">
         <f>COUNTIF(C44:T44,"&gt;0")</f>
@@ -773,7 +764,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="13">
         <f>B20*B21</f>
@@ -782,7 +773,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="13">
         <f>B22*30</f>
@@ -791,7 +782,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="13">
         <f>B23*12*0.8</f>
@@ -804,13 +795,13 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5">
         <v>0.05</v>
@@ -836,7 +827,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30" s="13">
         <f>VentasDiariasEsperadas</f>
@@ -845,34 +836,34 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" s="13">
-        <f>B30*25</f>
-        <v>750</v>
+        <f>B30*24</f>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="13">
-        <f>B31*12*0.8</f>
-        <v>7200</v>
+        <f>B31*12</f>
+        <v>8640</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="5">
         <f>B32/B24</f>
-        <v>1.2626262626262626E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -1132,31 +1123,16 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="12">
-        <f>U45</f>
-        <v>30</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="12">
-        <f>B46*6*4</f>
-        <v>720</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="12">
-        <f>B47*12</f>
-        <v>8640</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F5D16-67C9-294A-A4BA-EBF009F5CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815278A6-3094-A149-9678-D250BA96491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="3860" windowWidth="20780" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
+    <workbookView xWindow="2500" yWindow="4820" windowWidth="20780" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="PREC_MERCADO_CWS" sheetId="1" r:id="rId1"/>
     <sheet name="PREC_MERCADO_CWS (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ClientesEstimadosHr" localSheetId="1">'PREC_MERCADO_CWS (2)'!$B$22</definedName>
     <definedName name="ClientesEstimadosHr">PREC_MERCADO_CWS!$B$29</definedName>
     <definedName name="PersonasPromMinuto">PREC_MERCADO_CWS!$B$19</definedName>
+    <definedName name="TotalPronosticoMercado">PREC_MERCADO_CWS!$B$24</definedName>
     <definedName name="VentasDiariasEsperadas">PREC_MERCADO_CWS!$U$45</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -615,14 +617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
   <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -741,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +752,7 @@
       </c>
       <c r="B20" s="13">
         <f>B19*60</f>
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -768,7 +770,7 @@
       </c>
       <c r="B22" s="13">
         <f>B20*B21</f>
-        <v>1980</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +779,7 @@
       </c>
       <c r="B23" s="13">
         <f>B22*30</f>
-        <v>59400</v>
+        <v>118800</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -786,7 +788,7 @@
       </c>
       <c r="B24" s="13">
         <f>B23*12*0.8</f>
-        <v>570240</v>
+        <v>1140480</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +815,7 @@
       </c>
       <c r="B28">
         <f>PersonasPromMinuto*B27</f>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +824,7 @@
       </c>
       <c r="B29" s="13">
         <f>B28*60</f>
-        <v>9.0000000000000018</v>
+        <v>18.000000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -831,7 +833,7 @@
       </c>
       <c r="B30" s="13">
         <f>VentasDiariasEsperadas</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,7 +842,7 @@
       </c>
       <c r="B31" s="13">
         <f>B30*24</f>
-        <v>720</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +851,7 @@
       </c>
       <c r="B32" s="13">
         <f>B31*12</f>
-        <v>8640</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -872,7 +874,7 @@
       </c>
       <c r="B36" s="13">
         <f>ClientesEstimadosHr*B21</f>
-        <v>99.000000000000014</v>
+        <v>198.00000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -881,7 +883,7 @@
       </c>
       <c r="B37" s="13">
         <f>B36*30</f>
-        <v>2970.0000000000005</v>
+        <v>5940.0000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -890,7 +892,7 @@
       </c>
       <c r="B38" s="13">
         <f>B37*12</f>
-        <v>35640.000000000007</v>
+        <v>71280.000000000015</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -992,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G44" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H44" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="8">
         <v>0.3</v>
@@ -1055,47 +1057,47 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F45" s="7">
+      <c r="M45" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G45" s="7">
+      <c r="N45" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H45" s="7">
+      <c r="O45" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="I45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O45" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
       </c>
       <c r="P45" s="7">
         <f t="shared" si="0"/>
@@ -1119,7 +1121,7 @@
       </c>
       <c r="U45" s="10">
         <f>SUM(C45:S45)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -1520,4 +1522,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7B466E-774A-154B-A15F-2F2C4CB484BB}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <f>A1*B1</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SourceCode/Precio y mercado.xlsx
+++ b/SourceCode/Precio y mercado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815278A6-3094-A149-9678-D250BA96491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA91BD-34A2-3746-AAC0-3B9EAF10E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="4820" windowWidth="20780" windowHeight="15080" xr2:uid="{7927AE33-D6A4-0F41-8B3E-0FC2B28DCDA2}"/>
   </bookViews>
@@ -617,15 +617,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E1E7E-53AC-A643-84FA-D2ED81020BCE}">
   <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6640625" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
